--- a/output/a_30-03-2024.xlsx
+++ b/output/a_30-03-2024.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z18"/>
+  <dimension ref="A1:Z23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1784,20 +1784,16 @@
           <t>521190K840</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>155694256077</t>
-        </is>
+      <c r="C18" t="n">
+        <v>155694256077</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
           <t>['https://i.ebayimg.com/00/s/NDUwWDcwMA==/z/W-EAAOSwaeFl4z-m/$_1.JPG?set_id=2']</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>72206</t>
-        </is>
+      <c r="E18" t="n">
+        <v>72206</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1844,26 +1840,338 @@
         </is>
       </c>
       <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr">
-        <is>
-          <t>135</t>
-        </is>
+      <c r="W18" t="n">
+        <v>135</v>
       </c>
       <c r="X18" t="inlineStr">
         <is>
           <t>TOYOTA HILUX 2016 &gt; FRONT BUMPER 4 WHEEL DRIVE HIGH QUALITY NEW OE 521190K840</t>
         </is>
       </c>
-      <c r="Y18" t="inlineStr">
-        <is>
-          <t>214.69</t>
-        </is>
+      <c r="Y18" t="n">
+        <v>214.69</v>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
           <t>[{'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2015', 'Variant': 'Petrol Pickup', 'BodyStyle': 'RWD VIII _N1_', 'Cars Type': '2.0', 'Engine': '1998cc 101KW 137HP 1TR-FE'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2016', 'Variant': 'Petrol Pickup', 'BodyStyle': 'RWD VIII _N1_', 'Cars Type': '2.0', 'Engine': '1998cc 101KW 137HP 1TR-FE'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2017', 'Variant': 'Petrol Pickup', 'BodyStyle': 'RWD VIII _N1_', 'Cars Type': '2.0', 'Engine': '1998cc 101KW 137HP 1TR-FE'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2018', 'Variant': 'Petrol Pickup', 'BodyStyle': 'RWD VIII _N1_', 'Cars Type': '2.0', 'Engine': '1998cc 101KW 137HP 1TR-FE'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2019', 'Variant': 'Petrol Pickup', 'BodyStyle': 'RWD VIII _N1_', 'Cars Type': '2.0', 'Engine': '1998cc 101KW 137HP 1TR-FE'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2020', 'Variant': 'Petrol Pickup', 'BodyStyle': 'RWD VIII _N1_', 'Cars Type': '2.0', 'Engine': '1998cc 101KW 137HP 1TR-FE'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2015', 'Variant': 'Petrol Pickup', 'BodyStyle': 'RWD VIII _N1_', 'Cars Type': '2.0', 'Engine': '1998cc 102KW 139HP 1TR-FE'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2016', 'Variant': 'Petrol Pickup', 'BodyStyle': 'RWD VIII _N1_', 'Cars Type': '2.0', 'Engine': '1998cc 102KW 139HP 1TR-FE'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2017', 'Variant': 'Petrol Pickup', 'BodyStyle': 'RWD VIII _N1_', 'Cars Type': '2.0', 'Engine': '1998cc 102KW 139HP 1TR-FE'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2018', 'Variant': 'Petrol Pickup', 'BodyStyle': 'RWD VIII _N1_', 'Cars Type': '2.0', 'Engine': '1998cc 102KW 139HP 1TR-FE'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2019', 'Variant': 'Petrol Pickup', 'BodyStyle': 'RWD VIII _N1_', 'Cars Type': '2.0', 'Engine': '1998cc 102KW 139HP 1TR-FE'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2020', 'Variant': 'Petrol Pickup', 'BodyStyle': 'RWD VIII _N1_', 'Cars Type': '2.0', 'Engine': '1998cc 102KW 139HP 1TR-FE'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2015', 'Variant': 'Diesel Pickup', 'BodyStyle': 'AWD VIII _N1_', 'Cars Type': '2.4 D 4WD', 'Engine': '2393cc 108KW 147HP 2GD-FTV'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2016', 'Variant': 'Diesel Pickup', 'BodyStyle': 'AWD VIII _N1_', 'Cars Type': '2.4 D 4WD', 'Engine': '2393cc 108KW 147HP 2GD-FTV'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2017', 'Variant': 'Diesel Pickup', 'BodyStyle': 'AWD VIII _N1_', 'Cars Type': '2.4 D 4WD', 'Engine': '2393cc 108KW 147HP 2GD-FTV'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2018', 'Variant': 'Diesel Pickup', 'BodyStyle': 'AWD VIII _N1_', 'Cars Type': '2.4 D 4WD', 'Engine': '2393cc 108KW 147HP 2GD-FTV'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2019', 'Variant': 'Diesel Pickup', 'BodyStyle': 'AWD VIII _N1_', 'Cars Type': '2.4 D 4WD', 'Engine': '2393cc 108KW 147HP 2GD-FTV'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2020', 'Variant': 'Diesel Pickup', 'BodyStyle': 'AWD VIII _N1_', 'Cars Type': '2.4 D 4WD', 'Engine': '2393cc 108KW 147HP 2GD-FTV'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2015', 'Variant': 'Diesel Pickup', 'BodyStyle': 'RWD VIII _N1_', 'Cars Type': '2.4 D', 'Engine': '2393cc 108KW 147HP 2GD-FTV'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2016', 'Variant': 'Diesel Pickup', 'BodyStyle': 'RWD VIII _N1_', 'Cars Type': '2.4 D', 'Engine': '2393cc 108KW 147HP 2GD-FTV'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2017', 'Variant': 'Diesel Pickup', 'BodyStyle': 'RWD VIII _N1_', 'Cars Type': '2.4 D', 'Engine': '2393cc 108KW 147HP 2GD-FTV'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2018', 'Variant': 'Diesel Pickup', 'BodyStyle': 'RWD VIII _N1_', 'Cars Type': '2.4 D', 'Engine': '2393cc 108KW 147HP 2GD-FTV'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2019', 'Variant': 'Diesel Pickup', 'BodyStyle': 'RWD VIII _N1_', 'Cars Type': '2.4 D', 'Engine': '2393cc 108KW 147HP 2GD-FTV'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2020', 'Variant': 'Diesel Pickup', 'BodyStyle': 'RWD VIII _N1_', 'Cars Type': '2.4 D', 'Engine': '2393cc 108KW 147HP 2GD-FTV'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2015', 'Variant': 'Diesel Pickup', 'BodyStyle': 'AWD VIII _N1_', 'Cars Type': '2.4 D 4WD', 'Engine': '2393cc 110KW 150HP 2GD-FTV'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2016', 'Variant': 'Diesel Pickup', 'BodyStyle': 'AWD VIII _N1_', 'Cars Type': '2.4 D 4WD', 'Engine': '2393cc 110KW 150HP 2GD-FTV'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2017', 'Variant': 'Diesel Pickup', 'BodyStyle': 'AWD VIII _N1_', 'Cars Type': '2.4 D 4WD', 'Engine': '2393cc 110KW 150HP 2GD-FTV'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2018', 'Variant': 'Diesel Pickup', 'BodyStyle': 'AWD VIII _N1_', 'Cars Type': '2.4 D 4WD', 'Engine': '2393cc 110KW 150HP 2GD-FTV'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2019', 'Variant': 'Diesel Pickup', 'BodyStyle': 'AWD VIII _N1_', 'Cars Type': '2.4 D 4WD', 'Engine': '2393cc 110KW 150HP 2GD-FTV'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2020', 'Variant': 'Diesel Pickup', 'BodyStyle': 'AWD VIII _N1_', 'Cars Type': '2.4 D 4WD', 'Engine': '2393cc 110KW 150HP 2GD-FTV'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2015', 'Variant': 'Diesel Pickup', 'BodyStyle': 'RWD VIII _N1_', 'Cars Type': '2.4 D', 'Engine': '2393cc 110KW 150HP 2GD-FTV'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2016', 'Variant': 'Diesel Pickup', 'BodyStyle': 'RWD VIII _N1_', 'Cars Type': '2.4 D', 'Engine': '2393cc 110KW 150HP 2GD-FTV'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2017', 'Variant': 'Diesel Pickup', 'BodyStyle': 'RWD VIII _N1_', 'Cars Type': '2.4 D', 'Engine': '2393cc 110KW 150HP 2GD-FTV'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2018', 'Variant': 'Diesel Pickup', 'BodyStyle': 'RWD VIII _N1_', 'Cars Type': '2.4 D', 'Engine': '2393cc 110KW 150HP 2GD-FTV'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2019', 'Variant': 'Diesel Pickup', 'BodyStyle': 'RWD VIII _N1_', 'Cars Type': '2.4 D', 'Engine': '2393cc 110KW 150HP 2GD-FTV'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2020', 'Variant': 'Diesel Pickup', 'BodyStyle': 'RWD VIII _N1_', 'Cars Type': '2.4 D', 'Engine': '2393cc 110KW 150HP 2GD-FTV'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2018', 'Variant': 'Diesel Pickup', 'BodyStyle': 'AWD VIII _N1_', 'Cars Type': '2.4 D 4WD', 'Engine': '2393cc 125KW 170HP 2GD-FTV'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2019', 'Variant': 'Diesel Pickup', 'BodyStyle': 'AWD VIII _N1_', 'Cars Type': '2.4 D 4WD', 'Engine': '2393cc 125KW 170HP 2GD-FTV'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2020', 'Variant': 'Diesel Pickup', 'BodyStyle': 'AWD VIII _N1_', 'Cars Type': '2.4 D 4WD', 'Engine': '2393cc 125KW 170HP 2GD-FTV'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2018', 'Variant': 'Diesel Pickup', 'BodyStyle': 'RWD VIII _N1_', 'Cars Type': '2.4 D', 'Engine': '2393cc 125KW 170HP 2GD-FTV'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2019', 'Variant': 'Diesel Pickup', 'BodyStyle': 'RWD VIII _N1_', 'Cars Type': '2.4 D', 'Engine': '2393cc 125KW 170HP 2GD-FTV'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2020', 'Variant': 'Diesel Pickup', 'BodyStyle': 'RWD VIII _N1_', 'Cars Type': '2.4 D', 'Engine': '2393cc 125KW 170HP 2GD-FTV'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2015', 'Variant': 'Diesel Pickup', 'BodyStyle': 'RWD VIII _N1_', 'Cars Type': '2.5 D', 'Engine': '2494cc 106KW 144HP 2KD-FTV'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2016', 'Variant': 'Diesel Pickup', 'BodyStyle': 'RWD VIII _N1_', 'Cars Type': '2.5 D', 'Engine': '2494cc 106KW 144HP 2KD-FTV'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2017', 'Variant': 'Diesel Pickup', 'BodyStyle': 'RWD VIII _N1_', 'Cars Type': '2.5 D', 'Engine': '2494cc 106KW 144HP 2KD-FTV'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2018', 'Variant': 'Diesel Pickup', 'BodyStyle': 'RWD VIII _N1_', 'Cars Type': '2.5 D', 'Engine': '2494cc 106KW 144HP 2KD-FTV'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2019', 'Variant': 'Diesel Pickup', 'BodyStyle': 'RWD VIII _N1_', 'Cars Type': '2.5 D', 'Engine': '2494cc 106KW 144HP 2KD-FTV'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2020', 'Variant': 'Diesel Pickup', 'BodyStyle': 'RWD VIII _N1_', 'Cars Type': '2.5 D', 'Engine': '2494cc 106KW 144HP 2KD-FTV'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2015', 'Variant': 'Diesel Pickup', 'BodyStyle': 'AWD VIII _N1_', 'Cars Type': '2.5 D 4WD', 'Engine': '2494cc 74KW 101HP 2KD-FTV'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2016', 'Variant': 'Diesel Pickup', 'BodyStyle': 'AWD VIII _N1_', 'Cars Type': '2.5 D 4WD', 'Engine': '2494cc 74KW 101HP 2KD-FTV'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2017', 'Variant': 'Diesel Pickup', 'BodyStyle': 'AWD VIII _N1_', 'Cars Type': '2.5 D 4WD', 'Engine': '2494cc 74KW 101HP 2KD-FTV'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2018', 'Variant': 'Diesel Pickup', 'BodyStyle': 'AWD VIII _N1_', 'Cars Type': '2.5 D 4WD', 'Engine': '2494cc 74KW 101HP 2KD-FTV'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2019', 'Variant': 'Diesel Pickup', 'BodyStyle': 'AWD VIII _N1_', 'Cars Type': '2.5 D 4WD', 'Engine': '2494cc 74KW 101HP 2KD-FTV'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2020', 'Variant': 'Diesel Pickup', 'BodyStyle': 'AWD VIII _N1_', 'Cars Type': '2.5 D 4WD', 'Engine': '2494cc 74KW 101HP 2KD-FTV'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2019', 'Variant': 'Diesel Pickup', 'BodyStyle': 'RWD VIII _N1_', 'Cars Type': '2.5 D', 'Engine': '2494cc 74KW 101HP 2KD-FTV'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2017', 'Variant': 'Diesel Pickup', 'BodyStyle': 'RWD VIII _N1_', 'Cars Type': '2.5 D', 'Engine': '2494cc 74KW 101HP 2KD-FTV'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2018', 'Variant': 'Diesel Pickup', 'BodyStyle': 'RWD VIII _N1_', 'Cars Type': '2.5 D', 'Engine': '2494cc 74KW 101HP 2KD-FTV'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2015', 'Variant': 'Diesel Pickup', 'BodyStyle': 'RWD VIII _N1_', 'Cars Type': '2.5 D', 'Engine': '2494cc 74KW 101HP 2KD-FTV'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2016', 'Variant': 'Diesel Pickup', 'BodyStyle': 'RWD VIII _N1_', 'Cars Type': '2.5 D', 'Engine': '2494cc 74KW 101HP 2KD-FTV'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2015', 'Variant': 'Diesel Pickup', 'BodyStyle': 'RWD VIII _N1_', 'Cars Type': '2.5 D', 'Engine': '2494cc 75KW 102HP 2KD-FTV'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2016', 'Variant': 'Diesel Pickup', 'BodyStyle': 'RWD VIII _N1_', 'Cars Type': '2.5 D', 'Engine': '2494cc 75KW 102HP 2KD-FTV'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2017', 'Variant': 'Diesel Pickup', 'BodyStyle': 'RWD VIII _N1_', 'Cars Type': '2.5 D', 'Engine': '2494cc 75KW 102HP 2KD-FTV'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2012', 'Variant': 'Petrol Chassis Cab', 'BodyStyle': 'RWD -- _N1_,_N2_', 'Cars Type': '2.7', 'Engine': '2694cc 118KW 160HP 2TR-FE'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2013', 'Variant': 'Petrol Chassis Cab', 'BodyStyle': 'RWD -- _N1_,_N2_', 'Cars Type': '2.7', 'Engine': '2694cc 118KW 160HP 2TR-FE'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2014', 'Variant': 'Petrol Chassis Cab', 'BodyStyle': 'RWD -- _N1_,_N2_', 'Cars Type': '2.7', 'Engine': '2694cc 118KW 160HP 2TR-FE'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2015', 'Variant': 'Petrol Chassis Cab', 'BodyStyle': 'RWD -- _N1_,_N2_', 'Cars Type': '2.7', 'Engine': '2694cc 118KW 160HP 2TR-FE'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2016', 'Variant': 'Petrol Chassis Cab', 'BodyStyle': 'RWD -- _N1_,_N2_', 'Cars Type': '2.7', 'Engine': '2694cc 118KW 160HP 2TR-FE'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2015', 'Variant': 'Petrol Pickup', 'BodyStyle': 'AWD VIII _N1_', 'Cars Type': '2.7 4WD', 'Engine': '2694cc 118KW 160HP 2TR-FE'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2016', 'Variant': 'Petrol Pickup', 'BodyStyle': 'AWD VIII _N1_', 'Cars Type': '2.7 4WD', 'Engine': '2694cc 118KW 160HP 2TR-FE'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2017', 'Variant': 'Petrol Pickup', 'BodyStyle': 'AWD VIII _N1_', 'Cars Type': '2.7 4WD', 'Engine': '2694cc 118KW 160HP 2TR-FE'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2018', 'Variant': 'Petrol Pickup', 'BodyStyle': 'AWD VIII _N1_', 'Cars Type': '2.7 4WD', 'Engine': '2694cc 118KW 160HP 2TR-FE'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2019', 'Variant': 'Petrol Pickup', 'BodyStyle': 'AWD VIII _N1_', 'Cars Type': '2.7 4WD', 'Engine': '2694cc 118KW 160HP 2TR-FE'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2020', 'Variant': 'Petrol Pickup', 'BodyStyle': 'AWD VIII _N1_', 'Cars Type': '2.7 4WD', 'Engine': '2694cc 118KW 160HP 2TR-FE'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2015', 'Variant': 'Petrol Pickup', 'BodyStyle': 'AWD VIII _N1_', 'Cars Type': '2.7 4WD', 'Engine': '2694cc 121KW 165HP 2TR-FE'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2016', 'Variant': 'Petrol Pickup', 'BodyStyle': 'AWD VIII _N1_', 'Cars Type': '2.7 4WD', 'Engine': '2694cc 121KW 165HP 2TR-FE'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2017', 'Variant': 'Petrol Pickup', 'BodyStyle': 'AWD VIII _N1_', 'Cars Type': '2.7 4WD', 'Engine': '2694cc 121KW 165HP 2TR-FE'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2018', 'Variant': 'Petrol Pickup', 'BodyStyle': 'AWD VIII _N1_', 'Cars Type': '2.7 4WD', 'Engine': '2694cc 121KW 165HP 2TR-FE'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2019', 'Variant': 'Petrol Pickup', 'BodyStyle': 'AWD VIII _N1_', 'Cars Type': '2.7 4WD', 'Engine': '2694cc 121KW 165HP 2TR-FE'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2020', 'Variant': 'Petrol Pickup', 'BodyStyle': 'AWD VIII _N1_', 'Cars Type': '2.7 4WD', 'Engine': '2694cc 121KW 165HP 2TR-FE'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2015', 'Variant': 'Petrol Pickup', 'BodyStyle': 'RWD VIII _N1_', 'Cars Type': '2.7', 'Engine': '2694cc 121KW 165HP 2TR-FE'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2016', 'Variant': 'Petrol Pickup', 'BodyStyle': 'RWD VIII _N1_', 'Cars Type': '2.7', 'Engine': '2694cc 121KW 165HP 2TR-FE'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2017', 'Variant': 'Petrol Pickup', 'BodyStyle': 'RWD VIII _N1_', 'Cars Type': '2.7', 'Engine': '2694cc 121KW 165HP 2TR-FE'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2018', 'Variant': 'Petrol Pickup', 'BodyStyle': 'RWD VIII _N1_', 'Cars Type': '2.7', 'Engine': '2694cc 121KW 165HP 2TR-FE'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2019', 'Variant': 'Petrol Pickup', 'BodyStyle': 'RWD VIII _N1_', 'Cars Type': '2.7', 'Engine': '2694cc 121KW 165HP 2TR-FE'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2020', 'Variant': 'Petrol Pickup', 'BodyStyle': 'RWD VIII _N1_', 'Cars Type': '2.7', 'Engine': '2694cc 121KW 165HP 2TR-FE'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2015', 'Variant': 'Petrol Pickup', 'BodyStyle': 'RWD VIII _N1_', 'Cars Type': '2.7', 'Engine': '2694cc 122KW 166HP 2TR-FE'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2016', 'Variant': 'Petrol Pickup', 'BodyStyle': 'RWD VIII _N1_', 'Cars Type': '2.7', 'Engine': '2694cc 122KW 166HP 2TR-FE'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2017', 'Variant': 'Petrol Pickup', 'BodyStyle': 'RWD VIII _N1_', 'Cars Type': '2.7', 'Engine': '2694cc 122KW 166HP 2TR-FE'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2018', 'Variant': 'Petrol Pickup', 'BodyStyle': 'RWD VIII _N1_', 'Cars Type': '2.7', 'Engine': '2694cc 122KW 166HP 2TR-FE'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2019', 'Variant': 'Petrol Pickup', 'BodyStyle': 'RWD VIII _N1_', 'Cars Type': '2.7', 'Engine': '2694cc 122KW 166HP 2TR-FE'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2020', 'Variant': 'Petrol Pickup', 'BodyStyle': 'RWD VIII _N1_', 'Cars Type': '2.7', 'Engine': '2694cc 122KW 166HP 2TR-FE'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2015', 'Variant': 'Diesel Pickup', 'BodyStyle': 'AWD VIII _N1_', 'Cars Type': '2.8 D 4WD', 'Engine': '2755cc 130KW 177HP 1GD-FTV'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2016', 'Variant': 'Diesel Pickup', 'BodyStyle': 'AWD VIII _N1_', 'Cars Type': '2.8 D 4WD', 'Engine': '2755cc 130KW 177HP 1GD-FTV'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2017', 'Variant': 'Diesel Pickup', 'BodyStyle': 'AWD VIII _N1_', 'Cars Type': '2.8 D 4WD', 'Engine': '2755cc 130KW 177HP 1GD-FTV'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2018', 'Variant': 'Diesel Pickup', 'BodyStyle': 'AWD VIII _N1_', 'Cars Type': '2.8 D 4WD', 'Engine': '2755cc 130KW 177HP 1GD-FTV'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2019', 'Variant': 'Diesel Pickup', 'BodyStyle': 'AWD VIII _N1_', 'Cars Type': '2.8 D 4WD', 'Engine': '2755cc 130KW 177HP 1GD-FTV'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2020', 'Variant': 'Diesel Pickup', 'BodyStyle': 'AWD VIII _N1_', 'Cars Type': '2.8 D 4WD', 'Engine': '2755cc 130KW 177HP 1GD-FTV'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2015', 'Variant': 'Diesel Pickup', 'BodyStyle': 'RWD VIII _N1_', 'Cars Type': '2.8 D', 'Engine': '2755cc 130KW 177HP 1GD-FTV'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2016', 'Variant': 'Diesel Pickup', 'BodyStyle': 'RWD VIII _N1_', 'Cars Type': '2.8 D', 'Engine': '2755cc 130KW 177HP 1GD-FTV'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2017', 'Variant': 'Diesel Pickup', 'BodyStyle': 'RWD VIII _N1_', 'Cars Type': '2.8 D', 'Engine': '2755cc 130KW 177HP 1GD-FTV'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2018', 'Variant': 'Diesel Pickup', 'BodyStyle': 'RWD VIII _N1_', 'Cars Type': '2.8 D', 'Engine': '2755cc 130KW 177HP 1GD-FTV'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2019', 'Variant': 'Diesel Pickup', 'BodyStyle': 'RWD VIII _N1_', 'Cars Type': '2.8 D', 'Engine': '2755cc 130KW 177HP 1GD-FTV'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2020', 'Variant': 'Diesel Pickup', 'BodyStyle': 'RWD VIII _N1_', 'Cars Type': '2.8 D', 'Engine': '2755cc 130KW 177HP 1GD-FTV'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2012', 'Variant': 'Diesel Chassis Cab', 'BodyStyle': 'AWD -- _N1_,_N2_', 'Cars Type': '3.0 D 4WD', 'Engine': '2982cc 126KW 171HP 1KD-FTV'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2013', 'Variant': 'Diesel Chassis Cab', 'BodyStyle': 'AWD -- _N1_,_N2_', 'Cars Type': '3.0 D 4WD', 'Engine': '2982cc 126KW 171HP 1KD-FTV'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2014', 'Variant': 'Diesel Chassis Cab', 'BodyStyle': 'AWD -- _N1_,_N2_', 'Cars Type': '3.0 D 4WD', 'Engine': '2982cc 126KW 171HP 1KD-FTV'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2015', 'Variant': 'Diesel Chassis Cab', 'BodyStyle': 'AWD -- _N1_,_N2_', 'Cars Type': '3.0 D 4WD', 'Engine': '2982cc 126KW 171HP 1KD-FTV'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2016', 'Variant': 'Diesel Chassis Cab', 'BodyStyle': 'AWD -- _N1_,_N2_', 'Cars Type': '3.0 D 4WD', 'Engine': '2982cc 126KW 171HP 1KD-FTV'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2012', 'Variant': 'Diesel Chassis Cab', 'BodyStyle': 'RWD -- _N1_,_N2_', 'Cars Type': '3.0 D', 'Engine': '2982cc 126KW 171HP 1KD-FTV'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2013', 'Variant': 'Diesel Chassis Cab', 'BodyStyle': 'RWD -- _N1_,_N2_', 'Cars Type': '3.0 D', 'Engine': '2982cc 126KW 171HP 1KD-FTV'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2014', 'Variant': 'Diesel Chassis Cab', 'BodyStyle': 'RWD -- _N1_,_N2_', 'Cars Type': '3.0 D', 'Engine': '2982cc 126KW 171HP 1KD-FTV'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2015', 'Variant': 'Diesel Chassis Cab', 'BodyStyle': 'RWD -- _N1_,_N2_', 'Cars Type': '3.0 D', 'Engine': '2982cc 126KW 171HP 1KD-FTV'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2016', 'Variant': 'Diesel Chassis Cab', 'BodyStyle': 'RWD -- _N1_,_N2_', 'Cars Type': '3.0 D', 'Engine': '2982cc 126KW 171HP 1KD-FTV'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2012', 'Variant': 'Petrol Chassis Cab', 'BodyStyle': 'AWD -- _N1_,_N2_', 'Cars Type': '4.0 4WD', 'Engine': '3956cc 175KW 238HP 1GR-FE'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2013', 'Variant': 'Petrol Chassis Cab', 'BodyStyle': 'AWD -- _N1_,_N2_', 'Cars Type': '4.0 4WD', 'Engine': '3956cc 175KW 238HP 1GR-FE'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2014', 'Variant': 'Petrol Chassis Cab', 'BodyStyle': 'AWD -- _N1_,_N2_', 'Cars Type': '4.0 4WD', 'Engine': '3956cc 175KW 238HP 1GR-FE'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2015', 'Variant': 'Petrol Chassis Cab', 'BodyStyle': 'AWD -- _N1_,_N2_', 'Cars Type': '4.0 4WD', 'Engine': '3956cc 175KW 238HP 1GR-FE'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2016', 'Variant': 'Petrol Chassis Cab', 'BodyStyle': 'AWD -- _N1_,_N2_', 'Cars Type': '4.0 4WD', 'Engine': '3956cc 175KW 238HP 1GR-FE'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2015', 'Variant': 'Petrol Pickup', 'BodyStyle': 'AWD VIII _N1_', 'Cars Type': '4.0 4WD', 'Engine': '3956cc 175KW 238HP 1GR-FE'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2016', 'Variant': 'Petrol Pickup', 'BodyStyle': 'AWD VIII _N1_', 'Cars Type': '4.0 4WD', 'Engine': '3956cc 175KW 238HP 1GR-FE'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2017', 'Variant': 'Petrol Pickup', 'BodyStyle': 'AWD VIII _N1_', 'Cars Type': '4.0 4WD', 'Engine': '3956cc 175KW 238HP 1GR-FE'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2018', 'Variant': 'Petrol Pickup', 'BodyStyle': 'AWD VIII _N1_', 'Cars Type': '4.0 4WD', 'Engine': '3956cc 175KW 238HP 1GR-FE'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2019', 'Variant': 'Petrol Pickup', 'BodyStyle': 'AWD VIII _N1_', 'Cars Type': '4.0 4WD', 'Engine': '3956cc 175KW 238HP 1GR-FE'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2020', 'Variant': 'Petrol Pickup', 'BodyStyle': 'AWD VIII _N1_', 'Cars Type': '4.0 4WD', 'Engine': '3956cc 175KW 238HP 1GR-FE'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2015', 'Variant': 'Petrol Pickup', 'BodyStyle': 'RWD VIII _N1_', 'Cars Type': '4.0', 'Engine': '3956cc 175KW 238HP 1GR-FE'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2016', 'Variant': 'Petrol Pickup', 'BodyStyle': 'RWD VIII _N1_', 'Cars Type': '4.0', 'Engine': '3956cc 175KW 238HP 1GR-FE'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2017', 'Variant': 'Petrol Pickup', 'BodyStyle': 'RWD VIII _N1_', 'Cars Type': '4.0', 'Engine': '3956cc 175KW 238HP 1GR-FE'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2018', 'Variant': 'Petrol Pickup', 'BodyStyle': 'RWD VIII _N1_', 'Cars Type': '4.0', 'Engine': '3956cc 175KW 238HP 1GR-FE'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2019', 'Variant': 'Petrol Pickup', 'BodyStyle': 'RWD VIII _N1_', 'Cars Type': '4.0', 'Engine': '3956cc 175KW 238HP 1GR-FE'}, {'Car Make': 'Toyota', 'Model': 'Hilux', 'Cars Year': '2020', 'Variant': 'Petrol Pickup', 'BodyStyle': 'RWD VIII _N1_', 'Cars Type': '4.0', 'Engine': '3956cc 175KW 238HP 1GR-FE'}, {'Car Make': 'Toyota', 'Model': 'Hilux Vigo', 'Cars Year': '2012', 'Variant': 'Petrol Pickup', 'BodyStyle': 'AWD VII _N1_,_N2_,_N3_', 'Cars Type': '4.0 4WD', 'Engine': '3956cc 175KW 238HP 1GR-FE'}, {'Car Make': 'Toyota', 'Model': 'Hilux Vigo', 'Cars Year': '2013', 'Variant': 'Petrol Pickup', 'BodyStyle': 'AWD VII _N1_,_N2_,_N3_', 'Cars Type': '4.0 4WD', 'Engine': '3956cc 175KW 238HP 1GR-FE'}, {'Car Make': 'Toyota', 'Model': 'Hilux Vigo', 'Cars Year': '2014', 'Variant': 'Petrol Pickup', 'BodyStyle': 'AWD VII _N1_,_N2_,_N3_', 'Cars Type': '4.0 4WD', 'Engine': '3956cc 175KW 238HP 1GR-FE'}, {'Car Make': 'Toyota', 'Model': 'Hilux Vigo', 'Cars Year': '2015', 'Variant': 'Petrol Pickup', 'BodyStyle': 'AWD VII _N1_,_N2_,_N3_', 'Cars Type': '4.0 4WD', 'Engine': '3956cc 175KW 238HP 1GR-FE'}, {'Car Make': 'Toyota', 'Model': 'Hilux Vigo', 'Cars Year': '2016', 'Variant': 'Petrol Pickup', 'BodyStyle': 'AWD VII _N1_,_N2_,_N3_', 'Cars Type': '4.0 4WD', 'Engine': '3956cc 175KW 238HP 1GR-FE'}]</t>
         </is>
       </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>521190K946</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>374867501449</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/00/s/NTAwWDUwMA==/z/NPQAAOSw4cpk0qnd/$_1.PNG?set_id=8800005007']</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>33640</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>eBay Motors:Parts &amp; Accessories:Car &amp; Truck Parts &amp; Accessories:Exterior Parts &amp; Accessories:Bumpers &amp; Components:Bumpers &amp; Reinforcements</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>521190K946</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>521190K946 Genuine Toyota COVER, FRONT BUMPER 52119-0K946</t>
+        </is>
+      </c>
+      <c r="Y19" t="n">
+        <v>263.28</v>
+      </c>
+      <c r="Z19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>521190K949</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>182382075258</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/00/s/MTA2N1gxNjAw/z/fEQAAOSw9GdcbYtb/$_1.JPG?set_id=880000500F']</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>33640</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>eBay Motors:Parts &amp; Accessories:Car &amp; Truck Parts &amp; Accessories:Exterior Parts &amp; Accessories:Bumpers &amp; Components:Bumpers &amp; Reinforcements</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>521190K949</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>521190K949 Genuine Toyota COVER, FRONT BUMPER 52119-0K949</t>
+        </is>
+      </c>
+      <c r="Y20" t="n">
+        <v>231.12</v>
+      </c>
+      <c r="Z20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>521190K964</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>392331348485</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/00/s/NTAwWDUwMA==/z/AGEAAOSwEC5dIwkx/$_1.PNG?set_id=8800005007']</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>33640</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>eBay Motors:Parts &amp; Accessories:Car &amp; Truck Parts &amp; Accessories:Exterior Parts &amp; Accessories:Bumpers &amp; Components:Bumpers &amp; Reinforcements</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>521190K964</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>521190K964 Genuine Toyota COVER, FRONT BUMPER 52119-0K964</t>
+        </is>
+      </c>
+      <c r="Y21" t="n">
+        <v>231.12</v>
+      </c>
+      <c r="Z21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>521190K972</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>182382095377</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/00/s/MTA2N1gxNjAw/z/gPMAAOSwuAVcbY4Y/$_1.JPG?set_id=880000500F']</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>33640</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>eBay Motors:Parts &amp; Accessories:Car &amp; Truck Parts &amp; Accessories:Exterior Parts &amp; Accessories:Bumpers &amp; Components:Bumpers &amp; Reinforcements</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>521190K972</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>521190K972 Genuine Toyota COVER, FRONT BUMPER 52119-0K972</t>
+        </is>
+      </c>
+      <c r="Y22" t="n">
+        <v>263.28</v>
+      </c>
+      <c r="Z22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr"/>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>521190K974</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>394619762127</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/00/s/MTA2N1gxNjAw/z/ouIAAOSwE9hcbY4Y/$_1.JPG?set_id=880000500F']</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>33640</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>eBay Motors:Parts &amp; Accessories:Car &amp; Truck Parts &amp; Accessories:Exterior Parts &amp; Accessories:Bumpers &amp; Components:Bumpers &amp; Reinforcements</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>521190K974</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>521190K974 Genuine Toyota COVER, FRONT BUMPER 52119-0K974</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>263.28</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
